--- a/frontend/media_analysis.xlsx
+++ b/frontend/media_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,119 +453,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>___ ____ ____ ____ ______ ____low.mp4</t>
+          <t>0000003_Carved (3).jpeg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Here's a breakdown of the key elements visible in the images you sent:
-**Overall Aesthetic:**
-*   **Color Palette:** The dominant color scheme is warm and earthy, featuring shades of beige, brown, and gold. This creates a vintage or antique feel.
-*   **Background Texture:**  The background has a textured appearance that resembles aged parchment or paper. It adds to the overall sense of tradition and history.
-*   **Border Design:** A decorative border frames each image. The border features intricate patterns reminiscent of Islamic art, with swirling floral and geometric motifs in brown tones.
-**Textual Elements (Arabic Calligraphy):**
-Each image displays Arabic calligraphy. While I can't provide a precise translation without context, here are some observations:
-*   **Style:** The script appears to be in a traditional calligraphic style, likely Thuluth or Naskh, known for their elegance and readability.
-*   **Placement:** The text is centrally positioned within each frame, drawing the viewer's attention directly to it.
-*   **Content (Based on Visual Recognition):**
-    *   The first image contains a longer phrase.
-    *   The second image displays "Wazli" which could be a name or term.
-    *   The third image shows "Al-Baidu 'An".
-    *   The fourth image reads "Bowsal Al-Habib wa Flak al".
-**Possible Interpretation:**
-Given the visual style and Arabic script, it's likely that these images are part of a video with religious or cultural significance. The calligraphy could be verses from the Quran, poetry, or sayings related to Islamic teachings or traditions.
-If you can provide more context about where you found this video (e.g., its title, source), I might be able to offer a more specific interpretation of the text and its meaning.</t>
+          <t>Here's a breakdown of the key elements visible in the image you sent:
+*   **Individual:** The central figure is a man, likely a member or supporter of ISIS (Islamic State of Iraq and Syria). He appears to be Middle Eastern in appearance.
+*   **ISIS Flag:** Behind him is the iconic black flag with the white Arabic script ("La ilaha illallah" - "There is no god but God") and a red circle containing the same phrase. This is the official flag of ISIS.
+*   **Head Covering (Iqab):** He is wearing an *iqab*, a traditional head covering worn by some Muslims, particularly those associated with extremist groups like ISIS. It's typically white or off-white.
+*   **Facial Features:** The man has a dark beard and intense gaze, which are common features often associated with figures within militant Islamist organizations.
+**Overall Impression:** The image is deliberately constructed to project an image of power, religious extremism, and affiliation with ISIS. It's a classic visual element used by the group in their propaganda materials.</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>0000010_Carved (2).jpeg</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Okay, let's break down the key elements visible in the image you sent.
-**1. The Flag:**
-*   **Design:** This is the flag of ISIS (Islamic State of Iraq and Syria/Islamic State). It's a black banner with white Arabic script.
-*   **Arabic Script:**  The text on the flag includes the *Shahada*, the Islamic declaration of faith: "لا إله إلا الله محمد رسول الله" ("There is no god but God, Muhammad is his messenger"). There's also additional text that proclaims ISIS as the state.
-*   **Symbolism (within ISIS ideology):** The black color represents mourning and war, while the white symbolizes purity and victory.  The Shahada reinforces their claim to be acting in accordance with Islamic principles (though this interpretation is widely disputed by mainstream Muslims).
-**2. Map Overlay:**
-*   **Shape:** A stylized map of what ISIS claimed as its territory at one point. It includes parts of Iraq, Syria, Lebanon, Palestine, Jordan, and Saudi Arabia.
-*   **Text on the Map:** The text overlayed on the map is in Arabic and likely proclaims "Islamic State" or a similar phrase related to their self-declared caliphate.
-**3. Background/Setting:**
-*   **Desert Landscape:**  The image appears to be taken in a desert environment, which aligns with the regions where ISIS operated.
-*   **Bright Sunlight:** The strong sunlight suggests a hot and arid climate.
-**Overall Impression &amp; Context:**
-This image is highly symbolic of ISIS's ideology, territorial ambitions, and propaganda efforts. It was commonly used in their online materials to project power, claim legitimacy, and recruit followers.  It’s important to remember that the use of this flag and imagery is deeply controversial and associated with violence and terrorism.</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>0000012_Carved (1).jpeg</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Here's a breakdown of the key elements visible in the image you sent:
-*   **Child:** The primary subject is a young child, appearing to be a toddler or preschooler. They are positioned close to the camera.
-*   **Headwear:** The child is wearing what appears to be a black and grey patterned head covering, resembling a modified keffiyeh or similar traditional Middle Eastern garment.
-*   **Background Flag:** Behind the child, prominently displayed, is a flag with Arabic script and the ISIS (Islamic State) logo. This is a crucial element indicating an association with that extremist group.
-*   **Overall Impression:** The image evokes a disturbing and unsettling feeling due to the combination of a young child being associated with a terrorist organization's symbolism.
-**Important Note:** Images like this are often used for propaganda purposes by extremist groups. It's vital to be aware of the context and potential manipulation involved when encountering such visuals.</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>20151225_115821.jpg</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Here's a breakdown of the key elements visible in the image:
-*   **ISIS Flag:** The most prominent element is a black flag with white Arabic script and the Islamic State (ISIS) logo. This immediately signifies an association with ISIS, a designated terrorist organization.
-*   **Person:** A person is lying on the floor next to the flag. They are wearing a dark jacket, light-colored pants, and a head covering that obscures their face. The hand pointing towards the flag suggests some form of interaction or connection with it.
-*   **Setting:** The scene appears to be indoors, likely in a home setting. A patterned couch is visible in the background, along with what seems to be a white surface (possibly a table or floor).
-*   **Composition:** The image is taken from an angle that emphasizes the flag and the person's proximity to it.
-**Important Note:**  The presence of this flag and the individual’s actions raise serious concerns about potential extremist sympathies or involvement.</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>_ACHE__7.M_embedded_4.DELETED.jpg</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Okay, I've analyzed the image. Here's a description of the key elements:
-*   **Subject:** The primary focus is on a person lying down. They appear to be wrapped in white cloth (possibly a shroud or burial garment).
-*   **Facial Features:** The individual has a full beard and appears to have their eyes closed. There are visible markings or discoloration around the face, particularly near the nose and forehead.
-*   **Body:** The person's upper body is exposed, revealing what looks like skin discoloration or marks on the chest and neck area.
-*   **Background:** The background seems to be a plain, possibly concrete surface.
-*   **Overall Impression:** Given the context of the wrapping and the appearance of the individual, it strongly suggests this image depicts a deceased person in preparation for burial or a similar ritual.
-**Important Note:** I am an AI and cannot provide medical diagnoses or interpret the specific cause of any markings seen in the image. This description is purely based on visual observation.</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
